--- a/biology/Botanique/Allamanda_blanchetii/Allamanda_blanchetii.xlsx
+++ b/biology/Botanique/Allamanda_blanchetii/Allamanda_blanchetii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’allamanda pourpre, Allamanda blanchetii, est une espèce d'arbuste de la famille des Apocynaceae originaire du Brésil.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Allamanda violacea Gardner</t>
         </is>
@@ -541,7 +555,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Allamanda blanchetii est un arbuste de 2 m de haut.
 Les feuilles sont implantées par trois ou quatre en verticille.
@@ -574,7 +590,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Endémique à l'état de Bahia au Brésil
 </t>
@@ -605,7 +623,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'allamanda pourpre est cultivé dans les régions tropicales comme plante ornementale.
 </t>
